--- a/decoder5/Truth table.xlsx
+++ b/decoder5/Truth table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="6195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6420" windowHeight="6195"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
   <si>
     <t xml:space="preserve">code </t>
   </si>
@@ -120,6 +120,57 @@
   </si>
   <si>
     <t>s4</t>
+  </si>
+  <si>
+    <t>7hex</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>1001000</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>0110000</t>
+  </si>
+  <si>
+    <t>1110001</t>
+  </si>
+  <si>
+    <t>0000001</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Sdec</t>
+  </si>
+  <si>
+    <t>72,48,113,113,1</t>
+  </si>
+  <si>
+    <t>48,113,113,1,72</t>
+  </si>
+  <si>
+    <t>113,113,1,72,48</t>
+  </si>
+  <si>
+    <t>113,1,72,48,113</t>
+  </si>
+  <si>
+    <t>1,72,48,113,113</t>
   </si>
 </sst>
 </file>
@@ -180,10 +231,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -470,13 +521,15 @@
   <dimension ref="A1:F141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -492,6 +545,9 @@
       <c r="D1" t="s">
         <v>20</v>
       </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -506,7 +562,9 @@
       <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -521,7 +579,9 @@
       <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -536,7 +596,9 @@
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -551,7 +613,9 @@
       <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -564,7 +628,9 @@
       <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -607,15 +673,15 @@
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -751,38 +817,68 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
